--- a/data/full_data/keler.xlsx
+++ b/data/full_data/keler.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>CCP</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>CEEGEX KGA</t>
-  </si>
-  <si>
-    <t>Q4-2017</t>
   </si>
   <si>
     <t>Q3-2016</t>
@@ -513,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,19 +956,19 @@
         <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>504653.1888824402</v>
+        <v>1119162.400129387</v>
       </c>
       <c r="F6" t="n">
-        <v>16121.75146707938</v>
+        <v>16173.37861879347</v>
       </c>
       <c r="G6" t="n">
-        <v>2579480.234732701</v>
+        <v>2264273.006631085</v>
       </c>
       <c r="H6" t="n">
-        <v>5046108.209195848</v>
+        <v>11185508.65275756</v>
       </c>
       <c r="I6" t="n">
-        <v>5046108.209195848</v>
+        <v>11185508.65275756</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -983,28 +980,28 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>5046108.209195848</v>
+        <v>11185508.65275756</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2755897.59554814</v>
+        <v>7096652.452531134</v>
       </c>
       <c r="P6" t="n">
-        <v>764022.3593160097</v>
+        <v>1297837.561507487</v>
       </c>
       <c r="Q6" t="n">
-        <v>4814684</v>
+        <v>4908794.54</v>
       </c>
       <c r="R6" t="n">
-        <v>6351926</v>
+        <v>6350394.58</v>
       </c>
       <c r="S6" t="n">
-        <v>63136358.12420253</v>
+        <v>49551741.36787967</v>
       </c>
       <c r="T6" t="n">
-        <v>60364677.56497066</v>
+        <v>46857468.57189067</v>
       </c>
       <c r="U6" t="n">
         <v>11</v>
@@ -1017,20 +1014,12 @@
       </c>
       <c r="X6" t="s"/>
       <c r="Y6" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11932872.98360656</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>42351496.90609522</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="Z6" t="s"/>
+      <c r="AA6" t="s"/>
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="s"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1" t="n">
@@ -1046,19 +1035,19 @@
         <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>942879.1900432063</v>
+        <v>390315.1673944687</v>
       </c>
       <c r="F7" t="n">
-        <v>16121.75146707938</v>
+        <v>16173.37861879347</v>
       </c>
       <c r="G7" t="n">
-        <v>2579480.234732701</v>
+        <v>2264273.006631085</v>
       </c>
       <c r="H7" t="n">
-        <v>9428000.257948024</v>
+        <v>3901018.922852984</v>
       </c>
       <c r="I7" t="n">
-        <v>9428000.257948024</v>
+        <v>3901018.922852984</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1070,28 +1059,28 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>9428000.257948024</v>
+        <v>3901018.922852984</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2455221.719561488</v>
+        <v>3844742.444509138</v>
       </c>
       <c r="P7" t="n">
-        <v>1426851.958320716</v>
+        <v>959596.5161001602</v>
       </c>
       <c r="Q7" t="n">
-        <v>17043517</v>
+        <v>20082048.24</v>
       </c>
       <c r="R7" t="n">
-        <v>28397506</v>
+        <v>33115448.34</v>
       </c>
       <c r="S7" t="n">
-        <v>65411808.06437584</v>
+        <v>64290881.016885</v>
       </c>
       <c r="T7" t="n">
-        <v>62619609.24421229</v>
+        <v>61874948.39721818</v>
       </c>
       <c r="U7" t="n">
         <v>8</v>
@@ -1103,23 +1092,15 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>875</v>
+        <v>1144</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23738.90163934425</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>26811630.04297515</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="Z7" t="s"/>
+      <c r="AA7" t="s"/>
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="s"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1" t="n">
@@ -1135,19 +1116,19 @@
         <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>322964.6449990327</v>
+        <v>365370.1277696911</v>
       </c>
       <c r="F8" t="n">
-        <v>16121.75146707938</v>
+        <v>16173.37861879347</v>
       </c>
       <c r="G8" t="n">
-        <v>2579480.234732701</v>
+        <v>2264273.006631085</v>
       </c>
       <c r="H8" t="n">
-        <v>3229375.285355001</v>
+        <v>3651704.800258774</v>
       </c>
       <c r="I8" t="n">
-        <v>3229375.285355001</v>
+        <v>3651704.800258774</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1159,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>3229375.285355001</v>
+        <v>3651704.800258774</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1170,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>9787349</v>
+        <v>10766482.74</v>
       </c>
       <c r="S8" t="n">
-        <v>20024435.17669093</v>
+        <v>18432824.3700469</v>
       </c>
       <c r="T8" t="n">
-        <v>19989468.28851486</v>
+        <v>18415671.21138606</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1191,18 +1172,10 @@
       <c r="Y8" t="n">
         <v>0</v>
       </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z8" t="s"/>
+      <c r="AA8" t="s"/>
+      <c r="AB8" t="s"/>
+      <c r="AC8" t="s"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1" t="n">
@@ -1218,19 +1191,19 @@
         <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>112241.4167795189</v>
+        <v>19742.30955846676</v>
       </c>
       <c r="F9" t="n">
-        <v>16121.75146707938</v>
+        <v>16173.37861879347</v>
       </c>
       <c r="G9" t="n">
-        <v>2579480.234732701</v>
+        <v>2264273.006631085</v>
       </c>
       <c r="H9" t="n">
-        <v>1111000</v>
+        <v>197315.2191492803</v>
       </c>
       <c r="I9" t="n">
-        <v>1111000</v>
+        <v>197315.2191492803</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1242,34 +1215,34 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1111000</v>
+        <v>197315.2191492803</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>126998.4047359257</v>
+        <v>41285.17030567686</v>
       </c>
       <c r="P9" t="n">
-        <v>39534.6277334805</v>
+        <v>1935.777870197084</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>136000</v>
+        <v>272240.0129</v>
       </c>
       <c r="S9" t="n">
-        <v>13961141.68599544</v>
+        <v>2105892.269480835</v>
       </c>
       <c r="T9" t="n">
-        <v>13348961.19816857</v>
+        <v>2095893.233058386</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,18 +1251,10 @@
       <c r="Y9" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z9" t="s"/>
+      <c r="AA9" t="s"/>
+      <c r="AB9" t="s"/>
+      <c r="AC9" t="s"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1" t="n">
@@ -1305,19 +1270,19 @@
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>1119162.400129387</v>
+        <v>902986.8392978373</v>
       </c>
       <c r="F10" t="n">
-        <v>16173.37861879347</v>
+        <v>16163.96728413022</v>
       </c>
       <c r="G10" t="n">
-        <v>2264273.006631085</v>
+        <v>1939676.074095626</v>
       </c>
       <c r="H10" t="n">
-        <v>11185508.65275756</v>
+        <v>8444056.509229627</v>
       </c>
       <c r="I10" t="n">
-        <v>11185508.65275756</v>
+        <v>8444056.509229627</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1329,28 +1294,28 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>11185508.65275756</v>
+        <v>8444056.509229627</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>7096652.452531134</v>
+        <v>7092522.89044063</v>
       </c>
       <c r="P10" t="n">
-        <v>1297837.561507487</v>
+        <v>1302791.124575439</v>
       </c>
       <c r="Q10" t="n">
-        <v>4908794.54</v>
+        <v>5277478.97</v>
       </c>
       <c r="R10" t="n">
-        <v>6350394.58</v>
+        <v>7683687.07</v>
       </c>
       <c r="S10" t="n">
-        <v>49551741.36787967</v>
+        <v>50315360.79406616</v>
       </c>
       <c r="T10" t="n">
-        <v>46857468.57189067</v>
+        <v>47425269.02983869</v>
       </c>
       <c r="U10" t="n">
         <v>11</v>
@@ -1384,19 +1349,19 @@
         <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>390315.1673944687</v>
+        <v>582438.5898554942</v>
       </c>
       <c r="F11" t="n">
-        <v>16173.37861879347</v>
+        <v>16163.96728413022</v>
       </c>
       <c r="G11" t="n">
-        <v>2264273.006631085</v>
+        <v>1939676.074095626</v>
       </c>
       <c r="H11" t="n">
-        <v>3901018.922852984</v>
+        <v>5440791.387838231</v>
       </c>
       <c r="I11" t="n">
-        <v>3901018.922852984</v>
+        <v>5440791.387838231</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1408,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3901018.922852984</v>
+        <v>5440791.387838231</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3844742.444509138</v>
+        <v>3842505.178029936</v>
       </c>
       <c r="P11" t="n">
-        <v>959596.5161001602</v>
+        <v>1149112.773191391</v>
       </c>
       <c r="Q11" t="n">
-        <v>20082048.24</v>
+        <v>15141876.41</v>
       </c>
       <c r="R11" t="n">
-        <v>33115448.34</v>
+        <v>24837378.63</v>
       </c>
       <c r="S11" t="n">
-        <v>64290881.016885</v>
+        <v>59587519.47599132</v>
       </c>
       <c r="T11" t="n">
-        <v>61874948.39721818</v>
+        <v>57380916.72324055</v>
       </c>
       <c r="U11" t="n">
         <v>8</v>
@@ -1441,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1144</v>
+        <v>789</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="s"/>
       <c r="AA11" t="s"/>
@@ -1465,19 +1430,19 @@
         <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>365370.1277696911</v>
+        <v>352556.6902660589</v>
       </c>
       <c r="F12" t="n">
-        <v>16173.37861879347</v>
+        <v>16163.96728413022</v>
       </c>
       <c r="G12" t="n">
-        <v>2264273.006631085</v>
+        <v>1939676.074095626</v>
       </c>
       <c r="H12" t="n">
-        <v>3651704.800258774</v>
+        <v>3286993.049494068</v>
       </c>
       <c r="I12" t="n">
-        <v>3651704.800258774</v>
+        <v>3286993.049494068</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1489,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>3651704.800258774</v>
+        <v>3286993.049494068</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1500,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10766482.74</v>
+        <v>9843580.85</v>
       </c>
       <c r="S12" t="n">
-        <v>18432824.3700469</v>
+        <v>17855218.76959881</v>
       </c>
       <c r="T12" t="n">
-        <v>18415671.21138606</v>
+        <v>17849618.76959881</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1540,19 +1505,19 @@
         <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>19742.30955846676</v>
+        <v>36229.88717550836</v>
       </c>
       <c r="F13" t="n">
-        <v>16173.37861879347</v>
+        <v>16163.96728413022</v>
       </c>
       <c r="G13" t="n">
-        <v>2264273.006631085</v>
+        <v>1939676.074095626</v>
       </c>
       <c r="H13" t="n">
-        <v>197315.2191492803</v>
+        <v>323279.3456826044</v>
       </c>
       <c r="I13" t="n">
-        <v>197315.2191492803</v>
+        <v>323279.3456826044</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1564,34 +1529,34 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>197315.2191492803</v>
+        <v>323279.3456826044</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>41285.17030567686</v>
+        <v>64695.89677690493</v>
       </c>
       <c r="P13" t="n">
-        <v>1935.777870197084</v>
+        <v>4644.586434101816</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>272240.0129</v>
+        <v>593067.97</v>
       </c>
       <c r="S13" t="n">
-        <v>2105892.269480835</v>
+        <v>4152280.040733198</v>
       </c>
       <c r="T13" t="n">
-        <v>2095893.233058386</v>
+        <v>4152280.040733198</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1619,19 +1584,19 @@
         <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>902986.8392978373</v>
+        <v>1009361.794660931</v>
       </c>
       <c r="F14" t="n">
-        <v>16163.96728413022</v>
+        <v>15814.77732793522</v>
       </c>
       <c r="G14" t="n">
-        <v>1939676.074095626</v>
+        <v>1897773.279352227</v>
       </c>
       <c r="H14" t="n">
-        <v>8444056.509229627</v>
+        <v>9292763.157894734</v>
       </c>
       <c r="I14" t="n">
-        <v>8444056.509229627</v>
+        <v>9292763.157894734</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1643,28 +1608,28 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>8444056.509229627</v>
+        <v>9292763.157894734</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>7092522.89044063</v>
+        <v>6939303.218939777</v>
       </c>
       <c r="P14" t="n">
-        <v>1302791.124575439</v>
+        <v>1190446.782064524</v>
       </c>
       <c r="Q14" t="n">
-        <v>5277478.97</v>
+        <v>4119987.873228745</v>
       </c>
       <c r="R14" t="n">
-        <v>7683687.07</v>
+        <v>7382747.871330971</v>
       </c>
       <c r="S14" t="n">
-        <v>50315360.79406616</v>
+        <v>48346257.92712416</v>
       </c>
       <c r="T14" t="n">
-        <v>47425269.02983869</v>
+        <v>46219528.66902833</v>
       </c>
       <c r="U14" t="n">
         <v>11</v>
@@ -1677,7 +1642,7 @@
       </c>
       <c r="X14" t="s"/>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="s"/>
       <c r="AA14" t="s"/>
@@ -1698,19 +1663,19 @@
         <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>582438.5898554942</v>
+        <v>409163.648152834</v>
       </c>
       <c r="F15" t="n">
-        <v>16163.96728413022</v>
+        <v>15814.77732793522</v>
       </c>
       <c r="G15" t="n">
-        <v>1939676.074095626</v>
+        <v>1897773.279352227</v>
       </c>
       <c r="H15" t="n">
-        <v>5440791.387838231</v>
+        <v>3757591.093117408</v>
       </c>
       <c r="I15" t="n">
-        <v>5440791.387838231</v>
+        <v>3757591.093117408</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1722,28 +1687,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>5440791.387838231</v>
+        <v>3757591.093117408</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3842505.178029936</v>
+        <v>3416754.38069332</v>
       </c>
       <c r="P15" t="n">
-        <v>1149112.773191391</v>
+        <v>848776.7512707805</v>
       </c>
       <c r="Q15" t="n">
-        <v>15141876.41</v>
+        <v>10816305.79453441</v>
       </c>
       <c r="R15" t="n">
-        <v>24837378.63</v>
+        <v>16770879.42813765</v>
       </c>
       <c r="S15" t="n">
-        <v>59587519.47599132</v>
+        <v>48841211.64156415</v>
       </c>
       <c r="T15" t="n">
-        <v>57380916.72324055</v>
+        <v>47154269.29086538</v>
       </c>
       <c r="U15" t="n">
         <v>8</v>
@@ -1755,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>789</v>
+        <v>1002</v>
       </c>
       <c r="Y15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="s"/>
       <c r="AA15" t="s"/>
@@ -1779,19 +1744,19 @@
         <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>352556.6902660589</v>
+        <v>409458.9827935222</v>
       </c>
       <c r="F16" t="n">
-        <v>16163.96728413022</v>
+        <v>15814.77732793522</v>
       </c>
       <c r="G16" t="n">
-        <v>1939676.074095626</v>
+        <v>1897773.279352227</v>
       </c>
       <c r="H16" t="n">
-        <v>3286993.049494068</v>
+        <v>3760314.714068826</v>
       </c>
       <c r="I16" t="n">
-        <v>3286993.049494068</v>
+        <v>3760314.714068826</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1803,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3286993.049494068</v>
+        <v>3760314.714068826</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1814,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9843580.85</v>
+        <v>11037723.53871457</v>
       </c>
       <c r="S16" t="n">
-        <v>17855218.76959881</v>
+        <v>17575180.99293161</v>
       </c>
       <c r="T16" t="n">
-        <v>17849618.76959881</v>
+        <v>17561937.27859312</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1854,19 +1819,19 @@
         <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>36229.88717550836</v>
+        <v>20921.19180161943</v>
       </c>
       <c r="F17" t="n">
-        <v>16163.96728413022</v>
+        <v>15814.77732793522</v>
       </c>
       <c r="G17" t="n">
-        <v>1939676.074095626</v>
+        <v>1897773.279352227</v>
       </c>
       <c r="H17" t="n">
-        <v>323279.3456826044</v>
+        <v>177125.5060728745</v>
       </c>
       <c r="I17" t="n">
-        <v>323279.3456826044</v>
+        <v>177125.5060728745</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1878,34 +1843,34 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>323279.3456826044</v>
+        <v>177125.5060728745</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>64695.89677690493</v>
+        <v>21702.93522267206</v>
       </c>
       <c r="P17" t="n">
-        <v>4644.586434101816</v>
+        <v>628.7278340080971</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>593067.97</v>
+        <v>247868.1680161943</v>
       </c>
       <c r="S17" t="n">
-        <v>4152280.040733198</v>
+        <v>1545908.904399841</v>
       </c>
       <c r="T17" t="n">
-        <v>4152280.040733198</v>
+        <v>1540938.904352227</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1933,70 +1898,78 @@
         <v>30</v>
       </c>
       <c r="E18" t="n">
-        <v>1009361.794660931</v>
+        <v>742262</v>
       </c>
       <c r="F18" t="n">
-        <v>15814.77732793522</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1897773.279352227</v>
+        <v>15216</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
       </c>
       <c r="H18" t="n">
-        <v>9292763.157894734</v>
+        <v>7054169</v>
       </c>
       <c r="I18" t="n">
-        <v>9292763.157894734</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
+        <v>7054169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>41</v>
       </c>
       <c r="M18" t="n">
-        <v>9292763.157894734</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
+        <v>7054169</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
       </c>
       <c r="O18" t="n">
-        <v>6939303.218939777</v>
+        <v>8258874.623493609</v>
       </c>
       <c r="P18" t="n">
-        <v>1190446.782064524</v>
+        <v>717481.8323735644</v>
       </c>
       <c r="Q18" t="n">
-        <v>4119987.873228745</v>
+        <v>7777559</v>
       </c>
       <c r="R18" t="n">
-        <v>7382747.871330971</v>
+        <v>9869648</v>
       </c>
       <c r="S18" t="n">
-        <v>48346257.92712416</v>
+        <v>51000393</v>
       </c>
       <c r="T18" t="n">
-        <v>46219528.66902833</v>
+        <v>48527700</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="s"/>
       <c r="Y18" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z18" t="s"/>
-      <c r="AA18" t="s"/>
-      <c r="AB18" t="s"/>
-      <c r="AC18" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5935508.459016394</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>42648360.3662411</v>
+      </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1" t="n">
@@ -2012,72 +1985,80 @@
         <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>409163.648152834</v>
+        <v>642675</v>
       </c>
       <c r="F19" t="n">
-        <v>15814.77732793522</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1897773.279352227</v>
+        <v>15216</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
       </c>
       <c r="H19" t="n">
-        <v>3757591.093117408</v>
+        <v>6107730</v>
       </c>
       <c r="I19" t="n">
-        <v>3757591.093117408</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
+        <v>6107730</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
       </c>
       <c r="M19" t="n">
-        <v>3757591.093117408</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
+        <v>6107730</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
       </c>
       <c r="O19" t="n">
-        <v>3416754.38069332</v>
+        <v>6525260.574391357</v>
       </c>
       <c r="P19" t="n">
-        <v>848776.7512707805</v>
+        <v>1854421.915000807</v>
       </c>
       <c r="Q19" t="n">
-        <v>10816305.79453441</v>
+        <v>22928036</v>
       </c>
       <c r="R19" t="n">
-        <v>16770879.42813765</v>
+        <v>37382176</v>
       </c>
       <c r="S19" t="n">
-        <v>48841211.64156415</v>
+        <v>71550424</v>
       </c>
       <c r="T19" t="n">
-        <v>47154269.29086538</v>
+        <v>69367005</v>
       </c>
       <c r="U19" t="n">
         <v>8</v>
       </c>
       <c r="V19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1002</v>
+        <v>1217</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z19" t="s"/>
-      <c r="AA19" t="s"/>
-      <c r="AB19" t="s"/>
-      <c r="AC19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>31001.95081967213</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>32120121.62727536</v>
+      </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="1" t="n">
@@ -2093,34 +2074,34 @@
         <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>409458.9827935222</v>
+        <v>269596</v>
       </c>
       <c r="F20" t="n">
-        <v>15814.77732793522</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1897773.279352227</v>
+        <v>15216</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
       </c>
       <c r="H20" t="n">
-        <v>3760314.714068826</v>
+        <v>2562132</v>
       </c>
       <c r="I20" t="n">
-        <v>3760314.714068826</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
+        <v>2562132</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
       </c>
       <c r="M20" t="n">
-        <v>3760314.714068826</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
+        <v>2562132</v>
+      </c>
+      <c r="N20" t="s">
+        <v>40</v>
       </c>
       <c r="O20" t="s"/>
       <c r="P20" t="s"/>
@@ -2128,19 +2109,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>11037723.53871457</v>
+        <v>8090142</v>
       </c>
       <c r="S20" t="n">
-        <v>17575180.99293161</v>
+        <v>16996332</v>
       </c>
       <c r="T20" t="n">
-        <v>17561937.27859312</v>
+        <v>16977789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,10 +2130,18 @@
       <c r="Y20" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" t="s"/>
-      <c r="AA20" t="s"/>
-      <c r="AB20" t="s"/>
-      <c r="AC20" t="s"/>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="1" t="n">
@@ -2168,58 +2157,58 @@
         <v>33</v>
       </c>
       <c r="E21" t="n">
-        <v>20921.19180161943</v>
+        <v>129285</v>
       </c>
       <c r="F21" t="n">
-        <v>15814.77732793522</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1897773.279352227</v>
+        <v>17000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
       </c>
       <c r="H21" t="n">
-        <v>177125.5060728745</v>
+        <v>1000000</v>
       </c>
       <c r="I21" t="n">
-        <v>177125.5060728745</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
+        <v>1000000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
       </c>
       <c r="M21" t="n">
-        <v>177125.5060728745</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
+        <v>1000000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>40</v>
       </c>
       <c r="O21" t="n">
-        <v>21702.93522267206</v>
+        <v>371461.1054473524</v>
       </c>
       <c r="P21" t="n">
-        <v>628.7278340080971</v>
+        <v>13041.51333455667</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>247868.1680161943</v>
+        <v>1701618</v>
       </c>
       <c r="S21" t="n">
-        <v>1545908.904399841</v>
+        <v>18058737</v>
       </c>
       <c r="T21" t="n">
-        <v>1540938.904352227</v>
+        <v>17642309</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,10 +2217,18 @@
       <c r="Y21" t="n">
         <v>0</v>
       </c>
-      <c r="Z21" t="s"/>
-      <c r="AA21" t="s"/>
-      <c r="AB21" t="s"/>
-      <c r="AC21" t="s"/>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="1" t="n">
@@ -2241,61 +2238,59 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>742262</v>
+        <v>594275.375124506</v>
       </c>
       <c r="F22" t="n">
-        <v>15216</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
+        <v>16065.28933586094</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="n">
-        <v>7054169</v>
+        <v>6226906.1465797</v>
       </c>
       <c r="I22" t="n">
-        <v>7054169</v>
-      </c>
-      <c r="J22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" t="s">
-        <v>42</v>
+        <v>6226906.1465797</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>7054169</v>
-      </c>
-      <c r="N22" t="s">
-        <v>41</v>
+        <v>6226906.1465797</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>8258874.623493609</v>
+        <v>4428985.618352986</v>
       </c>
       <c r="P22" t="n">
-        <v>717481.8323735644</v>
+        <v>1261004.329225642</v>
       </c>
       <c r="Q22" t="n">
-        <v>7777559</v>
+        <v>6935789.586479452</v>
       </c>
       <c r="R22" t="n">
-        <v>9869648</v>
+        <v>8855726.761558976</v>
       </c>
       <c r="S22" t="n">
-        <v>51000393</v>
+        <v>54298539.17860574</v>
       </c>
       <c r="T22" t="n">
-        <v>48527700</v>
+        <v>53365984.79259712</v>
       </c>
       <c r="U22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V22" t="n">
         <v>10</v>
@@ -2305,19 +2300,19 @@
       </c>
       <c r="X22" t="s"/>
       <c r="Y22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>5935508.459016394</v>
+        <v>9014623.01538462</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>42648360.3662411</v>
+        <v>33273339.62788071</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2328,58 +2323,56 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
       </c>
       <c r="E23" t="n">
-        <v>642675</v>
+        <v>867709.3339331041</v>
       </c>
       <c r="F23" t="n">
-        <v>15216</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>16065.28933586094</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="n">
-        <v>6107730</v>
+        <v>9099379.879831634</v>
       </c>
       <c r="I23" t="n">
-        <v>6107730</v>
-      </c>
-      <c r="J23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L23" t="s">
-        <v>42</v>
+        <v>9099379.879831634</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>6107730</v>
-      </c>
-      <c r="N23" t="s">
-        <v>41</v>
+        <v>9099379.879831634</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>6525260.574391357</v>
+        <v>6930263.515743984</v>
       </c>
       <c r="P23" t="n">
-        <v>1854421.915000807</v>
+        <v>2481004.987439999</v>
       </c>
       <c r="Q23" t="n">
-        <v>22928036</v>
+        <v>16480384.24959033</v>
       </c>
       <c r="R23" t="n">
-        <v>37382176</v>
+        <v>27289390.25800854</v>
       </c>
       <c r="S23" t="n">
-        <v>71550424</v>
+        <v>63615757.64119718</v>
       </c>
       <c r="T23" t="n">
-        <v>69367005</v>
+        <v>62128525.86190277</v>
       </c>
       <c r="U23" t="n">
         <v>8</v>
@@ -2391,22 +2384,22 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1217</v>
+        <v>1093</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>31001.95081967213</v>
+        <v>26578.15384615384</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>32120121.62727536</v>
+        <v>30558127.42238818</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2417,40 +2410,38 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>269596</v>
+        <v>310168.8975998458</v>
       </c>
       <c r="F24" t="n">
-        <v>15216</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
+        <v>16065.28933586094</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="n">
-        <v>2562132</v>
+        <v>3242315.670083218</v>
       </c>
       <c r="I24" t="n">
-        <v>2562132</v>
-      </c>
-      <c r="J24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" t="s">
-        <v>42</v>
+        <v>3242315.670083218</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2562132</v>
-      </c>
-      <c r="N24" t="s">
-        <v>41</v>
+        <v>3242315.670083218</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
       </c>
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
@@ -2458,19 +2449,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8090142</v>
+        <v>10290250.7052662</v>
       </c>
       <c r="S24" t="n">
-        <v>16996332</v>
+        <v>17978835.53642001</v>
       </c>
       <c r="T24" t="n">
-        <v>16977789</v>
+        <v>17978835.53642001</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2500,64 +2491,62 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>129285</v>
+        <v>64229.45410146836</v>
       </c>
       <c r="F25" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
+        <v>16065.28933586094</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="n">
-        <v>1000000</v>
+        <v>658676.8627702984</v>
       </c>
       <c r="I25" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" t="s">
-        <v>42</v>
+        <v>658676.8627702984</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="N25" t="s">
-        <v>41</v>
+        <v>658676.8627702984</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>371461.1054473524</v>
+        <v>392192.6525399222</v>
       </c>
       <c r="P25" t="n">
-        <v>13041.51333455667</v>
+        <v>57014.08755190108</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1701618</v>
+        <v>1556810.076149471</v>
       </c>
       <c r="S25" t="n">
-        <v>18058737</v>
+        <v>9924563.029277867</v>
       </c>
       <c r="T25" t="n">
-        <v>17642309</v>
+        <v>9924087.311634483</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2593,17 +2582,19 @@
         <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>594275.375124506</v>
+        <v>705972.0084224166</v>
       </c>
       <c r="F26" t="n">
-        <v>16065.28933586094</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16196.95497246518</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1943634.596695821</v>
+      </c>
       <c r="H26" t="n">
-        <v>6226906.1465797</v>
+        <v>6439909.297052154</v>
       </c>
       <c r="I26" t="n">
-        <v>6226906.1465797</v>
+        <v>6439909.297052154</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,54 +2606,46 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>6226906.1465797</v>
+        <v>6439909.297052154</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>4428985.618352986</v>
+        <v>4253811.512795595</v>
       </c>
       <c r="P26" t="n">
-        <v>1261004.329225642</v>
+        <v>1180801.764249651</v>
       </c>
       <c r="Q26" t="n">
-        <v>6935789.586479452</v>
+        <v>8618369.118885649</v>
       </c>
       <c r="R26" t="n">
-        <v>8855726.761558976</v>
+        <v>10360256.57596372</v>
       </c>
       <c r="S26" t="n">
-        <v>54298539.17860574</v>
+        <v>52079399.15043169</v>
       </c>
       <c r="T26" t="n">
-        <v>53365984.79259712</v>
+        <v>48880848.23129252</v>
       </c>
       <c r="U26" t="n">
         <v>11</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="s"/>
       <c r="Y26" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>9014623.01538462</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>33273339.62788071</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="Z26" t="s"/>
+      <c r="AA26" t="s"/>
+      <c r="AB26" t="s"/>
+      <c r="AC26" t="s"/>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="1" t="n">
@@ -2678,17 +2661,19 @@
         <v>31</v>
       </c>
       <c r="E27" t="n">
-        <v>867709.3339331041</v>
+        <v>805967.0424360221</v>
       </c>
       <c r="F27" t="n">
-        <v>16065.28933586094</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16196.95497246518</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1943634.596695821</v>
+      </c>
       <c r="H27" t="n">
-        <v>9099379.879831634</v>
+        <v>7389050.858438614</v>
       </c>
       <c r="I27" t="n">
-        <v>9099379.879831634</v>
+        <v>7389050.858438614</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2700,56 +2685,48 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>9099379.879831634</v>
+        <v>7389050.858438614</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>6930263.515743984</v>
+        <v>3850347.025332038</v>
       </c>
       <c r="P27" t="n">
-        <v>2481004.987439999</v>
+        <v>1054671.71638592</v>
       </c>
       <c r="Q27" t="n">
-        <v>16480384.24959033</v>
+        <v>17644043.4888241</v>
       </c>
       <c r="R27" t="n">
-        <v>27289390.25800854</v>
+        <v>27534703.92938128</v>
       </c>
       <c r="S27" t="n">
-        <v>63615757.64119718</v>
+        <v>63302431.3536857</v>
       </c>
       <c r="T27" t="n">
-        <v>62128525.86190277</v>
+        <v>60118807.45383868</v>
       </c>
       <c r="U27" t="n">
         <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1093</v>
+        <v>789</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>26578.15384615384</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>30558127.42238818</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="Z27" t="s"/>
+      <c r="AA27" t="s"/>
+      <c r="AB27" t="s"/>
+      <c r="AC27" t="s"/>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="1" t="n">
@@ -2765,17 +2742,19 @@
         <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>310168.8975998458</v>
+        <v>342756.9063816002</v>
       </c>
       <c r="F28" t="n">
-        <v>16065.28933586094</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16196.95497246518</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1943634.596695821</v>
+      </c>
       <c r="H28" t="n">
-        <v>3242315.670083218</v>
+        <v>3142371.966310334</v>
       </c>
       <c r="I28" t="n">
-        <v>3242315.670083218</v>
+        <v>3142371.966310334</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2787,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>3242315.670083218</v>
+        <v>3142371.966310334</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2798,19 +2777,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10290250.7052662</v>
+        <v>9904298.215095563</v>
       </c>
       <c r="S28" t="n">
-        <v>17978835.53642001</v>
+        <v>17627487.52834467</v>
       </c>
       <c r="T28" t="n">
-        <v>17978835.53642001</v>
+        <v>17621863.40136055</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2819,18 +2798,10 @@
       <c r="Y28" t="n">
         <v>0</v>
       </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z28" t="s"/>
+      <c r="AA28" t="s"/>
+      <c r="AB28" t="s"/>
+      <c r="AC28" t="s"/>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="1" t="n">
@@ -2846,17 +2817,19 @@
         <v>33</v>
       </c>
       <c r="E29" t="n">
-        <v>64229.45410146836</v>
+        <v>34273.91642371234</v>
       </c>
       <c r="F29" t="n">
-        <v>16065.28933586094</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16196.95497246518</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1943634.596695821</v>
+      </c>
       <c r="H29" t="n">
-        <v>658676.8627702984</v>
+        <v>314220.9264658244</v>
       </c>
       <c r="I29" t="n">
-        <v>658676.8627702984</v>
+        <v>314220.9264658244</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2868,34 +2841,34 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>658676.8627702984</v>
+        <v>314220.9264658244</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>392192.6525399222</v>
+        <v>105271.784904438</v>
       </c>
       <c r="P29" t="n">
-        <v>57014.08755190108</v>
+        <v>7529.046619165302</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1556810.076149471</v>
+        <v>1116669.906057661</v>
       </c>
       <c r="S29" t="n">
-        <v>9924563.029277867</v>
+        <v>5727340.25915128</v>
       </c>
       <c r="T29" t="n">
-        <v>9924087.311634483</v>
+        <v>5727340.25915128</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2904,18 +2877,10 @@
       <c r="Y29" t="n">
         <v>0</v>
       </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z29" t="s"/>
+      <c r="AA29" t="s"/>
+      <c r="AB29" t="s"/>
+      <c r="AC29" t="s"/>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="1" t="n">
@@ -2931,70 +2896,78 @@
         <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>705972.0084224166</v>
+        <v>797444</v>
       </c>
       <c r="F30" t="n">
-        <v>16196.95497246518</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1943634.596695821</v>
+        <v>15997</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
       </c>
       <c r="H30" t="n">
-        <v>6439909.297052154</v>
+        <v>8094705</v>
       </c>
       <c r="I30" t="n">
-        <v>6439909.297052154</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
+        <v>8094705</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
       </c>
       <c r="M30" t="n">
-        <v>6439909.297052154</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
+        <v>8094705</v>
+      </c>
+      <c r="N30" t="s">
+        <v>47</v>
       </c>
       <c r="O30" t="n">
-        <v>4253811.512795595</v>
+        <v>8682982.566885298</v>
       </c>
       <c r="P30" t="n">
-        <v>1180801.764249651</v>
+        <v>1061521.890342072</v>
       </c>
       <c r="Q30" t="n">
-        <v>8618369.118885649</v>
+        <v>6369931.662134059</v>
       </c>
       <c r="R30" t="n">
-        <v>10360256.57596372</v>
+        <v>7896381.273396256</v>
       </c>
       <c r="S30" t="n">
-        <v>52079399.15043169</v>
+        <v>52331015.46</v>
       </c>
       <c r="T30" t="n">
-        <v>48880848.23129252</v>
+        <v>49589601.28</v>
       </c>
       <c r="U30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="s"/>
       <c r="Y30" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z30" t="s"/>
-      <c r="AA30" t="s"/>
-      <c r="AB30" t="s"/>
-      <c r="AC30" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8560186.540983606</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>47232751.47467178</v>
+      </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="1" t="n">
@@ -3010,72 +2983,80 @@
         <v>31</v>
       </c>
       <c r="E31" t="n">
-        <v>805967.0424360221</v>
+        <v>687972</v>
       </c>
       <c r="F31" t="n">
-        <v>16196.95497246518</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1943634.596695821</v>
+        <v>15997</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
       </c>
       <c r="H31" t="n">
-        <v>7389050.858438614</v>
+        <v>6981283</v>
       </c>
       <c r="I31" t="n">
-        <v>7389050.858438614</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
+        <v>6981283</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" t="s">
+        <v>48</v>
       </c>
       <c r="M31" t="n">
-        <v>7389050.858438614</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
+        <v>6981283</v>
+      </c>
+      <c r="N31" t="s">
+        <v>47</v>
       </c>
       <c r="O31" t="n">
-        <v>3850347.025332038</v>
+        <v>6900994.765653496</v>
       </c>
       <c r="P31" t="n">
-        <v>1054671.71638592</v>
+        <v>2430969.101572935</v>
       </c>
       <c r="Q31" t="n">
-        <v>17644043.4888241</v>
+        <v>18236123.82018877</v>
       </c>
       <c r="R31" t="n">
-        <v>27534703.92938128</v>
+        <v>29473977.82754759</v>
       </c>
       <c r="S31" t="n">
-        <v>63302431.3536857</v>
+        <v>66556920</v>
       </c>
       <c r="T31" t="n">
-        <v>60118807.45383868</v>
+        <v>63231853.03</v>
       </c>
       <c r="U31" t="n">
         <v>8</v>
       </c>
       <c r="V31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>789</v>
+        <v>1087</v>
       </c>
       <c r="Y31" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" t="s"/>
-      <c r="AA31" t="s"/>
-      <c r="AB31" t="s"/>
-      <c r="AC31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>25521.65573770492</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>29162620.60227017</v>
+      </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="1" t="n">
@@ -3091,34 +3072,34 @@
         <v>32</v>
       </c>
       <c r="E32" t="n">
-        <v>342756.9063816002</v>
+        <v>274438</v>
       </c>
       <c r="F32" t="n">
-        <v>16196.95497246518</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1943634.596695821</v>
+        <v>15997</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
       </c>
       <c r="H32" t="n">
-        <v>3142371.966310334</v>
+        <v>2775282</v>
       </c>
       <c r="I32" t="n">
-        <v>3142371.966310334</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
+        <v>2775282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" t="s">
+        <v>48</v>
       </c>
       <c r="M32" t="n">
-        <v>3142371.966310334</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
+        <v>2775282</v>
+      </c>
+      <c r="N32" t="s">
+        <v>47</v>
       </c>
       <c r="O32" t="s"/>
       <c r="P32" t="s"/>
@@ -3126,19 +3107,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>9904298.215095563</v>
+        <v>8499401.91969285</v>
       </c>
       <c r="S32" t="n">
-        <v>17627487.52834467</v>
+        <v>19386283.65</v>
       </c>
       <c r="T32" t="n">
-        <v>17621863.40136055</v>
+        <v>19367699.01</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3147,10 +3128,18 @@
       <c r="Y32" t="n">
         <v>0</v>
       </c>
-      <c r="Z32" t="s"/>
-      <c r="AA32" t="s"/>
-      <c r="AB32" t="s"/>
-      <c r="AC32" t="s"/>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="1" t="n">
@@ -3166,58 +3155,58 @@
         <v>33</v>
       </c>
       <c r="E33" t="n">
-        <v>34273.91642371234</v>
+        <v>100388</v>
       </c>
       <c r="F33" t="n">
-        <v>16196.95497246518</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1943634.596695821</v>
+        <v>17000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
       </c>
       <c r="H33" t="n">
-        <v>314220.9264658244</v>
+        <v>1000000</v>
       </c>
       <c r="I33" t="n">
-        <v>314220.9264658244</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
+        <v>1000000</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
       </c>
       <c r="M33" t="n">
-        <v>314220.9264658244</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
+        <v>1000000</v>
+      </c>
+      <c r="N33" t="s">
+        <v>47</v>
       </c>
       <c r="O33" t="n">
-        <v>105271.784904438</v>
+        <v>390536.2957926731</v>
       </c>
       <c r="P33" t="n">
-        <v>7529.046619165302</v>
+        <v>61061.4564238878</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1116669.906057661</v>
+        <v>1329418.000319949</v>
       </c>
       <c r="S33" t="n">
-        <v>5727340.25915128</v>
+        <v>17184197.32</v>
       </c>
       <c r="T33" t="n">
-        <v>5727340.25915128</v>
+        <v>16827703.99</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3226,354 +3215,16 @@
       <c r="Y33" t="n">
         <v>0</v>
       </c>
-      <c r="Z33" t="s"/>
-      <c r="AA33" t="s"/>
-      <c r="AB33" t="s"/>
-      <c r="AC33" t="s"/>
-    </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" t="n">
-        <v>797444</v>
-      </c>
-      <c r="F34" t="n">
-        <v>15997</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="n">
-        <v>8094705</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8094705</v>
-      </c>
-      <c r="J34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" t="s">
-        <v>49</v>
-      </c>
-      <c r="M34" t="n">
-        <v>8094705</v>
-      </c>
-      <c r="N34" t="s">
-        <v>48</v>
-      </c>
-      <c r="O34" t="n">
-        <v>8682982.566885298</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1061521.890342072</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>6369931.662134059</v>
-      </c>
-      <c r="R34" t="n">
-        <v>7896381.273396256</v>
-      </c>
-      <c r="S34" t="n">
-        <v>52331015.46</v>
-      </c>
-      <c r="T34" t="n">
-        <v>49589601.28</v>
-      </c>
-      <c r="U34" t="n">
-        <v>10</v>
-      </c>
-      <c r="V34" t="n">
-        <v>10</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>8560186.540983606</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>47232751.47467178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" t="n">
-        <v>687972</v>
-      </c>
-      <c r="F35" t="n">
-        <v>15997</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="n">
-        <v>6981283</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6981283</v>
-      </c>
-      <c r="J35" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" t="s">
-        <v>49</v>
-      </c>
-      <c r="M35" t="n">
-        <v>6981283</v>
-      </c>
-      <c r="N35" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" t="n">
-        <v>6900994.765653496</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2430969.101572935</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>18236123.82018877</v>
-      </c>
-      <c r="R35" t="n">
-        <v>29473977.82754759</v>
-      </c>
-      <c r="S35" t="n">
-        <v>66556920</v>
-      </c>
-      <c r="T35" t="n">
-        <v>63231853.03</v>
-      </c>
-      <c r="U35" t="n">
-        <v>8</v>
-      </c>
-      <c r="V35" t="n">
-        <v>4</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1087</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>25521.65573770492</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>29162620.60227017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" t="n">
-        <v>274438</v>
-      </c>
-      <c r="F36" t="n">
-        <v>15997</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2775282</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2775282</v>
-      </c>
-      <c r="J36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" t="s">
-        <v>49</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2775282</v>
-      </c>
-      <c r="N36" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>8499401.91969285</v>
-      </c>
-      <c r="S36" t="n">
-        <v>19386283.65</v>
-      </c>
-      <c r="T36" t="n">
-        <v>19367699.01</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>39</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" t="n">
-        <v>100388</v>
-      </c>
-      <c r="F37" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="J37" t="s">
-        <v>47</v>
-      </c>
-      <c r="K37" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" t="s">
-        <v>49</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="N37" t="s">
-        <v>48</v>
-      </c>
-      <c r="O37" t="n">
-        <v>390536.2957926731</v>
-      </c>
-      <c r="P37" t="n">
-        <v>61061.4564238878</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1329418.000319949</v>
-      </c>
-      <c r="S37" t="n">
-        <v>17184197.32</v>
-      </c>
-      <c r="T37" t="n">
-        <v>16827703.99</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>25</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/full_data/keler.xlsx
+++ b/data/full_data/keler.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>CCP</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>CEEGEX KGA</t>
+  </si>
+  <si>
+    <t>Q4-2017</t>
   </si>
   <si>
     <t>Q3-2016</t>
@@ -510,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,19 +959,19 @@
         <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>1119162.400129387</v>
+        <v>504653.1888824402</v>
       </c>
       <c r="F6" t="n">
-        <v>16173.37861879347</v>
+        <v>16121.75146707938</v>
       </c>
       <c r="G6" t="n">
-        <v>2264273.006631085</v>
+        <v>2579480.234732701</v>
       </c>
       <c r="H6" t="n">
-        <v>11185508.65275756</v>
+        <v>5046108.209195848</v>
       </c>
       <c r="I6" t="n">
-        <v>11185508.65275756</v>
+        <v>5046108.209195848</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -980,28 +983,28 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>11185508.65275756</v>
+        <v>5046108.209195848</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>7096652.452531134</v>
+        <v>2755897.59554814</v>
       </c>
       <c r="P6" t="n">
-        <v>1297837.561507487</v>
+        <v>764022.3593160097</v>
       </c>
       <c r="Q6" t="n">
-        <v>4908794.54</v>
+        <v>4814684</v>
       </c>
       <c r="R6" t="n">
-        <v>6350394.58</v>
+        <v>6351926</v>
       </c>
       <c r="S6" t="n">
-        <v>49551741.36787967</v>
+        <v>63136358.12420253</v>
       </c>
       <c r="T6" t="n">
-        <v>46857468.57189067</v>
+        <v>60364677.56497066</v>
       </c>
       <c r="U6" t="n">
         <v>11</v>
@@ -1014,12 +1017,20 @@
       </c>
       <c r="X6" t="s"/>
       <c r="Y6" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11932872.98360656</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>42351496.90609522</v>
+      </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1" t="n">
@@ -1035,19 +1046,19 @@
         <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>390315.1673944687</v>
+        <v>942879.1900432063</v>
       </c>
       <c r="F7" t="n">
-        <v>16173.37861879347</v>
+        <v>16121.75146707938</v>
       </c>
       <c r="G7" t="n">
-        <v>2264273.006631085</v>
+        <v>2579480.234732701</v>
       </c>
       <c r="H7" t="n">
-        <v>3901018.922852984</v>
+        <v>9428000.257948024</v>
       </c>
       <c r="I7" t="n">
-        <v>3901018.922852984</v>
+        <v>9428000.257948024</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1059,28 +1070,28 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3901018.922852984</v>
+        <v>9428000.257948024</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3844742.444509138</v>
+        <v>2455221.719561488</v>
       </c>
       <c r="P7" t="n">
-        <v>959596.5161001602</v>
+        <v>1426851.958320716</v>
       </c>
       <c r="Q7" t="n">
-        <v>20082048.24</v>
+        <v>17043517</v>
       </c>
       <c r="R7" t="n">
-        <v>33115448.34</v>
+        <v>28397506</v>
       </c>
       <c r="S7" t="n">
-        <v>64290881.016885</v>
+        <v>65411808.06437584</v>
       </c>
       <c r="T7" t="n">
-        <v>61874948.39721818</v>
+        <v>62619609.24421229</v>
       </c>
       <c r="U7" t="n">
         <v>8</v>
@@ -1092,15 +1103,23 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1144</v>
+        <v>875</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23738.90163934425</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>26811630.04297515</v>
+      </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1" t="n">
@@ -1116,19 +1135,19 @@
         <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>365370.1277696911</v>
+        <v>322964.6449990327</v>
       </c>
       <c r="F8" t="n">
-        <v>16173.37861879347</v>
+        <v>16121.75146707938</v>
       </c>
       <c r="G8" t="n">
-        <v>2264273.006631085</v>
+        <v>2579480.234732701</v>
       </c>
       <c r="H8" t="n">
-        <v>3651704.800258774</v>
+        <v>3229375.285355001</v>
       </c>
       <c r="I8" t="n">
-        <v>3651704.800258774</v>
+        <v>3229375.285355001</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1140,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>3651704.800258774</v>
+        <v>3229375.285355001</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1151,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>10766482.74</v>
+        <v>9787349</v>
       </c>
       <c r="S8" t="n">
-        <v>18432824.3700469</v>
+        <v>20024435.17669093</v>
       </c>
       <c r="T8" t="n">
-        <v>18415671.21138606</v>
+        <v>19989468.28851486</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1172,10 +1191,18 @@
       <c r="Y8" t="n">
         <v>0</v>
       </c>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1" t="n">
@@ -1191,19 +1218,19 @@
         <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>19742.30955846676</v>
+        <v>112241.4167795189</v>
       </c>
       <c r="F9" t="n">
-        <v>16173.37861879347</v>
+        <v>16121.75146707938</v>
       </c>
       <c r="G9" t="n">
-        <v>2264273.006631085</v>
+        <v>2579480.234732701</v>
       </c>
       <c r="H9" t="n">
-        <v>197315.2191492803</v>
+        <v>1111000</v>
       </c>
       <c r="I9" t="n">
-        <v>197315.2191492803</v>
+        <v>1111000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1215,34 +1242,34 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>197315.2191492803</v>
+        <v>1111000</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>41285.17030567686</v>
+        <v>126998.4047359257</v>
       </c>
       <c r="P9" t="n">
-        <v>1935.777870197084</v>
+        <v>39534.6277334805</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>272240.0129</v>
+        <v>136000</v>
       </c>
       <c r="S9" t="n">
-        <v>2105892.269480835</v>
+        <v>13961141.68599544</v>
       </c>
       <c r="T9" t="n">
-        <v>2095893.233058386</v>
+        <v>13348961.19816857</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1251,10 +1278,18 @@
       <c r="Y9" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1" t="n">
@@ -1270,19 +1305,19 @@
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>902986.8392978373</v>
+        <v>1119162.400129387</v>
       </c>
       <c r="F10" t="n">
-        <v>16163.96728413022</v>
+        <v>16173.37861879347</v>
       </c>
       <c r="G10" t="n">
-        <v>1939676.074095626</v>
+        <v>2264273.006631085</v>
       </c>
       <c r="H10" t="n">
-        <v>8444056.509229627</v>
+        <v>11185508.65275756</v>
       </c>
       <c r="I10" t="n">
-        <v>8444056.509229627</v>
+        <v>11185508.65275756</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1294,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>8444056.509229627</v>
+        <v>11185508.65275756</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>7092522.89044063</v>
+        <v>7096652.452531134</v>
       </c>
       <c r="P10" t="n">
-        <v>1302791.124575439</v>
+        <v>1297837.561507487</v>
       </c>
       <c r="Q10" t="n">
-        <v>5277478.97</v>
+        <v>4908794.54</v>
       </c>
       <c r="R10" t="n">
-        <v>7683687.07</v>
+        <v>6350394.58</v>
       </c>
       <c r="S10" t="n">
-        <v>50315360.79406616</v>
+        <v>49551741.36787967</v>
       </c>
       <c r="T10" t="n">
-        <v>47425269.02983869</v>
+        <v>46857468.57189067</v>
       </c>
       <c r="U10" t="n">
         <v>11</v>
@@ -1349,19 +1384,19 @@
         <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>582438.5898554942</v>
+        <v>390315.1673944687</v>
       </c>
       <c r="F11" t="n">
-        <v>16163.96728413022</v>
+        <v>16173.37861879347</v>
       </c>
       <c r="G11" t="n">
-        <v>1939676.074095626</v>
+        <v>2264273.006631085</v>
       </c>
       <c r="H11" t="n">
-        <v>5440791.387838231</v>
+        <v>3901018.922852984</v>
       </c>
       <c r="I11" t="n">
-        <v>5440791.387838231</v>
+        <v>3901018.922852984</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1373,28 +1408,28 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5440791.387838231</v>
+        <v>3901018.922852984</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3842505.178029936</v>
+        <v>3844742.444509138</v>
       </c>
       <c r="P11" t="n">
-        <v>1149112.773191391</v>
+        <v>959596.5161001602</v>
       </c>
       <c r="Q11" t="n">
-        <v>15141876.41</v>
+        <v>20082048.24</v>
       </c>
       <c r="R11" t="n">
-        <v>24837378.63</v>
+        <v>33115448.34</v>
       </c>
       <c r="S11" t="n">
-        <v>59587519.47599132</v>
+        <v>64290881.016885</v>
       </c>
       <c r="T11" t="n">
-        <v>57380916.72324055</v>
+        <v>61874948.39721818</v>
       </c>
       <c r="U11" t="n">
         <v>8</v>
@@ -1406,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>789</v>
+        <v>1144</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="s"/>
       <c r="AA11" t="s"/>
@@ -1430,19 +1465,19 @@
         <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>352556.6902660589</v>
+        <v>365370.1277696911</v>
       </c>
       <c r="F12" t="n">
-        <v>16163.96728413022</v>
+        <v>16173.37861879347</v>
       </c>
       <c r="G12" t="n">
-        <v>1939676.074095626</v>
+        <v>2264273.006631085</v>
       </c>
       <c r="H12" t="n">
-        <v>3286993.049494068</v>
+        <v>3651704.800258774</v>
       </c>
       <c r="I12" t="n">
-        <v>3286993.049494068</v>
+        <v>3651704.800258774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1454,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>3286993.049494068</v>
+        <v>3651704.800258774</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1465,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9843580.85</v>
+        <v>10766482.74</v>
       </c>
       <c r="S12" t="n">
-        <v>17855218.76959881</v>
+        <v>18432824.3700469</v>
       </c>
       <c r="T12" t="n">
-        <v>17849618.76959881</v>
+        <v>18415671.21138606</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1505,19 +1540,19 @@
         <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>36229.88717550836</v>
+        <v>19742.30955846676</v>
       </c>
       <c r="F13" t="n">
-        <v>16163.96728413022</v>
+        <v>16173.37861879347</v>
       </c>
       <c r="G13" t="n">
-        <v>1939676.074095626</v>
+        <v>2264273.006631085</v>
       </c>
       <c r="H13" t="n">
-        <v>323279.3456826044</v>
+        <v>197315.2191492803</v>
       </c>
       <c r="I13" t="n">
-        <v>323279.3456826044</v>
+        <v>197315.2191492803</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1529,34 +1564,34 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>323279.3456826044</v>
+        <v>197315.2191492803</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>64695.89677690493</v>
+        <v>41285.17030567686</v>
       </c>
       <c r="P13" t="n">
-        <v>4644.586434101816</v>
+        <v>1935.777870197084</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>593067.97</v>
+        <v>272240.0129</v>
       </c>
       <c r="S13" t="n">
-        <v>4152280.040733198</v>
+        <v>2105892.269480835</v>
       </c>
       <c r="T13" t="n">
-        <v>4152280.040733198</v>
+        <v>2095893.233058386</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1584,19 +1619,19 @@
         <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>1009361.794660931</v>
+        <v>902986.8392978373</v>
       </c>
       <c r="F14" t="n">
-        <v>15814.77732793522</v>
+        <v>16163.96728413022</v>
       </c>
       <c r="G14" t="n">
-        <v>1897773.279352227</v>
+        <v>1939676.074095626</v>
       </c>
       <c r="H14" t="n">
-        <v>9292763.157894734</v>
+        <v>8444056.509229627</v>
       </c>
       <c r="I14" t="n">
-        <v>9292763.157894734</v>
+        <v>8444056.509229627</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1608,28 +1643,28 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>9292763.157894734</v>
+        <v>8444056.509229627</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>6939303.218939777</v>
+        <v>7092522.89044063</v>
       </c>
       <c r="P14" t="n">
-        <v>1190446.782064524</v>
+        <v>1302791.124575439</v>
       </c>
       <c r="Q14" t="n">
-        <v>4119987.873228745</v>
+        <v>5277478.97</v>
       </c>
       <c r="R14" t="n">
-        <v>7382747.871330971</v>
+        <v>7683687.07</v>
       </c>
       <c r="S14" t="n">
-        <v>48346257.92712416</v>
+        <v>50315360.79406616</v>
       </c>
       <c r="T14" t="n">
-        <v>46219528.66902833</v>
+        <v>47425269.02983869</v>
       </c>
       <c r="U14" t="n">
         <v>11</v>
@@ -1642,7 +1677,7 @@
       </c>
       <c r="X14" t="s"/>
       <c r="Y14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="s"/>
       <c r="AA14" t="s"/>
@@ -1663,19 +1698,19 @@
         <v>31</v>
       </c>
       <c r="E15" t="n">
-        <v>409163.648152834</v>
+        <v>582438.5898554942</v>
       </c>
       <c r="F15" t="n">
-        <v>15814.77732793522</v>
+        <v>16163.96728413022</v>
       </c>
       <c r="G15" t="n">
-        <v>1897773.279352227</v>
+        <v>1939676.074095626</v>
       </c>
       <c r="H15" t="n">
-        <v>3757591.093117408</v>
+        <v>5440791.387838231</v>
       </c>
       <c r="I15" t="n">
-        <v>3757591.093117408</v>
+        <v>5440791.387838231</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1687,28 +1722,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3757591.093117408</v>
+        <v>5440791.387838231</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3416754.38069332</v>
+        <v>3842505.178029936</v>
       </c>
       <c r="P15" t="n">
-        <v>848776.7512707805</v>
+        <v>1149112.773191391</v>
       </c>
       <c r="Q15" t="n">
-        <v>10816305.79453441</v>
+        <v>15141876.41</v>
       </c>
       <c r="R15" t="n">
-        <v>16770879.42813765</v>
+        <v>24837378.63</v>
       </c>
       <c r="S15" t="n">
-        <v>48841211.64156415</v>
+        <v>59587519.47599132</v>
       </c>
       <c r="T15" t="n">
-        <v>47154269.29086538</v>
+        <v>57380916.72324055</v>
       </c>
       <c r="U15" t="n">
         <v>8</v>
@@ -1720,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1002</v>
+        <v>789</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z15" t="s"/>
       <c r="AA15" t="s"/>
@@ -1744,19 +1779,19 @@
         <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>409458.9827935222</v>
+        <v>352556.6902660589</v>
       </c>
       <c r="F16" t="n">
-        <v>15814.77732793522</v>
+        <v>16163.96728413022</v>
       </c>
       <c r="G16" t="n">
-        <v>1897773.279352227</v>
+        <v>1939676.074095626</v>
       </c>
       <c r="H16" t="n">
-        <v>3760314.714068826</v>
+        <v>3286993.049494068</v>
       </c>
       <c r="I16" t="n">
-        <v>3760314.714068826</v>
+        <v>3286993.049494068</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1768,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3760314.714068826</v>
+        <v>3286993.049494068</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1779,19 +1814,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11037723.53871457</v>
+        <v>9843580.85</v>
       </c>
       <c r="S16" t="n">
-        <v>17575180.99293161</v>
+        <v>17855218.76959881</v>
       </c>
       <c r="T16" t="n">
-        <v>17561937.27859312</v>
+        <v>17849618.76959881</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1819,19 +1854,19 @@
         <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>20921.19180161943</v>
+        <v>36229.88717550836</v>
       </c>
       <c r="F17" t="n">
-        <v>15814.77732793522</v>
+        <v>16163.96728413022</v>
       </c>
       <c r="G17" t="n">
-        <v>1897773.279352227</v>
+        <v>1939676.074095626</v>
       </c>
       <c r="H17" t="n">
-        <v>177125.5060728745</v>
+        <v>323279.3456826044</v>
       </c>
       <c r="I17" t="n">
-        <v>177125.5060728745</v>
+        <v>323279.3456826044</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1843,34 +1878,34 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>177125.5060728745</v>
+        <v>323279.3456826044</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>21702.93522267206</v>
+        <v>64695.89677690493</v>
       </c>
       <c r="P17" t="n">
-        <v>628.7278340080971</v>
+        <v>4644.586434101816</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>247868.1680161943</v>
+        <v>593067.97</v>
       </c>
       <c r="S17" t="n">
-        <v>1545908.904399841</v>
+        <v>4152280.040733198</v>
       </c>
       <c r="T17" t="n">
-        <v>1540938.904352227</v>
+        <v>4152280.040733198</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1898,78 +1933,70 @@
         <v>30</v>
       </c>
       <c r="E18" t="n">
-        <v>742262</v>
+        <v>1009361.794660931</v>
       </c>
       <c r="F18" t="n">
-        <v>15216</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
+        <v>15814.77732793522</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1897773.279352227</v>
       </c>
       <c r="H18" t="n">
-        <v>7054169</v>
+        <v>9292763.157894734</v>
       </c>
       <c r="I18" t="n">
-        <v>7054169</v>
-      </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" t="s">
-        <v>41</v>
+        <v>9292763.157894734</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>7054169</v>
-      </c>
-      <c r="N18" t="s">
-        <v>40</v>
+        <v>9292763.157894734</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>8258874.623493609</v>
+        <v>6939303.218939777</v>
       </c>
       <c r="P18" t="n">
-        <v>717481.8323735644</v>
+        <v>1190446.782064524</v>
       </c>
       <c r="Q18" t="n">
-        <v>7777559</v>
+        <v>4119987.873228745</v>
       </c>
       <c r="R18" t="n">
-        <v>9869648</v>
+        <v>7382747.871330971</v>
       </c>
       <c r="S18" t="n">
-        <v>51000393</v>
+        <v>48346257.92712416</v>
       </c>
       <c r="T18" t="n">
-        <v>48527700</v>
+        <v>46219528.66902833</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="s"/>
       <c r="Y18" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>5935508.459016394</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>42648360.3662411</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="Z18" t="s"/>
+      <c r="AA18" t="s"/>
+      <c r="AB18" t="s"/>
+      <c r="AC18" t="s"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="1" t="n">
@@ -1985,80 +2012,72 @@
         <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>642675</v>
+        <v>409163.648152834</v>
       </c>
       <c r="F19" t="n">
-        <v>15216</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
+        <v>15814.77732793522</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1897773.279352227</v>
       </c>
       <c r="H19" t="n">
-        <v>6107730</v>
+        <v>3757591.093117408</v>
       </c>
       <c r="I19" t="n">
-        <v>6107730</v>
-      </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" t="s">
-        <v>41</v>
+        <v>3757591.093117408</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>6107730</v>
-      </c>
-      <c r="N19" t="s">
-        <v>40</v>
+        <v>3757591.093117408</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>6525260.574391357</v>
+        <v>3416754.38069332</v>
       </c>
       <c r="P19" t="n">
-        <v>1854421.915000807</v>
+        <v>848776.7512707805</v>
       </c>
       <c r="Q19" t="n">
-        <v>22928036</v>
+        <v>10816305.79453441</v>
       </c>
       <c r="R19" t="n">
-        <v>37382176</v>
+        <v>16770879.42813765</v>
       </c>
       <c r="S19" t="n">
-        <v>71550424</v>
+        <v>48841211.64156415</v>
       </c>
       <c r="T19" t="n">
-        <v>69367005</v>
+        <v>47154269.29086538</v>
       </c>
       <c r="U19" t="n">
         <v>8</v>
       </c>
       <c r="V19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1217</v>
+        <v>1002</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>31001.95081967213</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>32120121.62727536</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="Z19" t="s"/>
+      <c r="AA19" t="s"/>
+      <c r="AB19" t="s"/>
+      <c r="AC19" t="s"/>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="1" t="n">
@@ -2074,34 +2093,34 @@
         <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>269596</v>
+        <v>409458.9827935222</v>
       </c>
       <c r="F20" t="n">
-        <v>15216</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
+        <v>15814.77732793522</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1897773.279352227</v>
       </c>
       <c r="H20" t="n">
-        <v>2562132</v>
+        <v>3760314.714068826</v>
       </c>
       <c r="I20" t="n">
-        <v>2562132</v>
-      </c>
-      <c r="J20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" t="s">
-        <v>41</v>
+        <v>3760314.714068826</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2562132</v>
-      </c>
-      <c r="N20" t="s">
-        <v>40</v>
+        <v>3760314.714068826</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
       </c>
       <c r="O20" t="s"/>
       <c r="P20" t="s"/>
@@ -2109,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8090142</v>
+        <v>11037723.53871457</v>
       </c>
       <c r="S20" t="n">
-        <v>16996332</v>
+        <v>17575180.99293161</v>
       </c>
       <c r="T20" t="n">
-        <v>16977789</v>
+        <v>17561937.27859312</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2130,18 +2149,10 @@
       <c r="Y20" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z20" t="s"/>
+      <c r="AA20" t="s"/>
+      <c r="AB20" t="s"/>
+      <c r="AC20" t="s"/>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="1" t="n">
@@ -2157,58 +2168,58 @@
         <v>33</v>
       </c>
       <c r="E21" t="n">
-        <v>129285</v>
+        <v>20921.19180161943</v>
       </c>
       <c r="F21" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
+        <v>15814.77732793522</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1897773.279352227</v>
       </c>
       <c r="H21" t="n">
-        <v>1000000</v>
+        <v>177125.5060728745</v>
       </c>
       <c r="I21" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="J21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" t="s">
-        <v>41</v>
+        <v>177125.5060728745</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="N21" t="s">
-        <v>40</v>
+        <v>177125.5060728745</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>371461.1054473524</v>
+        <v>21702.93522267206</v>
       </c>
       <c r="P21" t="n">
-        <v>13041.51333455667</v>
+        <v>628.7278340080971</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1701618</v>
+        <v>247868.1680161943</v>
       </c>
       <c r="S21" t="n">
-        <v>18058737</v>
+        <v>1545908.904399841</v>
       </c>
       <c r="T21" t="n">
-        <v>17642309</v>
+        <v>1540938.904352227</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2217,18 +2228,10 @@
       <c r="Y21" t="n">
         <v>0</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z21" t="s"/>
+      <c r="AA21" t="s"/>
+      <c r="AB21" t="s"/>
+      <c r="AC21" t="s"/>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="1" t="n">
@@ -2238,59 +2241,61 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>594275.375124506</v>
+        <v>742262</v>
       </c>
       <c r="F22" t="n">
-        <v>16065.28933586094</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>15216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
       <c r="H22" t="n">
-        <v>6226906.1465797</v>
+        <v>7054169</v>
       </c>
       <c r="I22" t="n">
-        <v>6226906.1465797</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
+        <v>7054169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>42</v>
       </c>
       <c r="M22" t="n">
-        <v>6226906.1465797</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
+        <v>7054169</v>
+      </c>
+      <c r="N22" t="s">
+        <v>41</v>
       </c>
       <c r="O22" t="n">
-        <v>4428985.618352986</v>
+        <v>8258874.623493609</v>
       </c>
       <c r="P22" t="n">
-        <v>1261004.329225642</v>
+        <v>717481.8323735644</v>
       </c>
       <c r="Q22" t="n">
-        <v>6935789.586479452</v>
+        <v>7777559</v>
       </c>
       <c r="R22" t="n">
-        <v>8855726.761558976</v>
+        <v>9869648</v>
       </c>
       <c r="S22" t="n">
-        <v>54298539.17860574</v>
+        <v>51000393</v>
       </c>
       <c r="T22" t="n">
-        <v>53365984.79259712</v>
+        <v>48527700</v>
       </c>
       <c r="U22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V22" t="n">
         <v>10</v>
@@ -2300,19 +2305,19 @@
       </c>
       <c r="X22" t="s"/>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>9014623.01538462</v>
+        <v>5935508.459016394</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>33273339.62788071</v>
+        <v>42648360.3662411</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2323,56 +2328,58 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
       </c>
       <c r="E23" t="n">
-        <v>867709.3339331041</v>
+        <v>642675</v>
       </c>
       <c r="F23" t="n">
-        <v>16065.28933586094</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>15216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
       <c r="H23" t="n">
-        <v>9099379.879831634</v>
+        <v>6107730</v>
       </c>
       <c r="I23" t="n">
-        <v>9099379.879831634</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
+        <v>6107730</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>42</v>
       </c>
       <c r="M23" t="n">
-        <v>9099379.879831634</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
+        <v>6107730</v>
+      </c>
+      <c r="N23" t="s">
+        <v>41</v>
       </c>
       <c r="O23" t="n">
-        <v>6930263.515743984</v>
+        <v>6525260.574391357</v>
       </c>
       <c r="P23" t="n">
-        <v>2481004.987439999</v>
+        <v>1854421.915000807</v>
       </c>
       <c r="Q23" t="n">
-        <v>16480384.24959033</v>
+        <v>22928036</v>
       </c>
       <c r="R23" t="n">
-        <v>27289390.25800854</v>
+        <v>37382176</v>
       </c>
       <c r="S23" t="n">
-        <v>63615757.64119718</v>
+        <v>71550424</v>
       </c>
       <c r="T23" t="n">
-        <v>62128525.86190277</v>
+        <v>69367005</v>
       </c>
       <c r="U23" t="n">
         <v>8</v>
@@ -2384,22 +2391,22 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1093</v>
+        <v>1217</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>26578.15384615384</v>
+        <v>31001.95081967213</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>30558127.42238818</v>
+        <v>32120121.62727536</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2410,38 +2417,40 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>310168.8975998458</v>
+        <v>269596</v>
       </c>
       <c r="F24" t="n">
-        <v>16065.28933586094</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>15216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
       <c r="H24" t="n">
-        <v>3242315.670083218</v>
+        <v>2562132</v>
       </c>
       <c r="I24" t="n">
-        <v>3242315.670083218</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
+        <v>2562132</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>42</v>
       </c>
       <c r="M24" t="n">
-        <v>3242315.670083218</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>2562132</v>
+      </c>
+      <c r="N24" t="s">
+        <v>41</v>
       </c>
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
@@ -2449,19 +2458,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10290250.7052662</v>
+        <v>8090142</v>
       </c>
       <c r="S24" t="n">
-        <v>17978835.53642001</v>
+        <v>16996332</v>
       </c>
       <c r="T24" t="n">
-        <v>17978835.53642001</v>
+        <v>16977789</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2491,62 +2500,64 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>64229.45410146836</v>
+        <v>129285</v>
       </c>
       <c r="F25" t="n">
-        <v>16065.28933586094</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>17000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
       <c r="H25" t="n">
-        <v>658676.8627702984</v>
+        <v>1000000</v>
       </c>
       <c r="I25" t="n">
-        <v>658676.8627702984</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
+        <v>1000000</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" t="s">
+        <v>42</v>
       </c>
       <c r="M25" t="n">
-        <v>658676.8627702984</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
+        <v>1000000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>41</v>
       </c>
       <c r="O25" t="n">
-        <v>392192.6525399222</v>
+        <v>371461.1054473524</v>
       </c>
       <c r="P25" t="n">
-        <v>57014.08755190108</v>
+        <v>13041.51333455667</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1556810.076149471</v>
+        <v>1701618</v>
       </c>
       <c r="S25" t="n">
-        <v>9924563.029277867</v>
+        <v>18058737</v>
       </c>
       <c r="T25" t="n">
-        <v>9924087.311634483</v>
+        <v>17642309</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2582,19 +2593,17 @@
         <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>705972.0084224166</v>
+        <v>594275.375124506</v>
       </c>
       <c r="F26" t="n">
-        <v>16196.95497246518</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1943634.596695821</v>
-      </c>
+        <v>16065.28933586094</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="n">
-        <v>6439909.297052154</v>
+        <v>6226906.1465797</v>
       </c>
       <c r="I26" t="n">
-        <v>6439909.297052154</v>
+        <v>6226906.1465797</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,46 +2615,54 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>6439909.297052154</v>
+        <v>6226906.1465797</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>4253811.512795595</v>
+        <v>4428985.618352986</v>
       </c>
       <c r="P26" t="n">
-        <v>1180801.764249651</v>
+        <v>1261004.329225642</v>
       </c>
       <c r="Q26" t="n">
-        <v>8618369.118885649</v>
+        <v>6935789.586479452</v>
       </c>
       <c r="R26" t="n">
-        <v>10360256.57596372</v>
+        <v>8855726.761558976</v>
       </c>
       <c r="S26" t="n">
-        <v>52079399.15043169</v>
+        <v>54298539.17860574</v>
       </c>
       <c r="T26" t="n">
-        <v>48880848.23129252</v>
+        <v>53365984.79259712</v>
       </c>
       <c r="U26" t="n">
         <v>11</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="s"/>
       <c r="Y26" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z26" t="s"/>
-      <c r="AA26" t="s"/>
-      <c r="AB26" t="s"/>
-      <c r="AC26" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>9014623.01538462</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>33273339.62788071</v>
+      </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="1" t="n">
@@ -2661,19 +2678,17 @@
         <v>31</v>
       </c>
       <c r="E27" t="n">
-        <v>805967.0424360221</v>
+        <v>867709.3339331041</v>
       </c>
       <c r="F27" t="n">
-        <v>16196.95497246518</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1943634.596695821</v>
-      </c>
+        <v>16065.28933586094</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="n">
-        <v>7389050.858438614</v>
+        <v>9099379.879831634</v>
       </c>
       <c r="I27" t="n">
-        <v>7389050.858438614</v>
+        <v>9099379.879831634</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,48 +2700,56 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>7389050.858438614</v>
+        <v>9099379.879831634</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>3850347.025332038</v>
+        <v>6930263.515743984</v>
       </c>
       <c r="P27" t="n">
-        <v>1054671.71638592</v>
+        <v>2481004.987439999</v>
       </c>
       <c r="Q27" t="n">
-        <v>17644043.4888241</v>
+        <v>16480384.24959033</v>
       </c>
       <c r="R27" t="n">
-        <v>27534703.92938128</v>
+        <v>27289390.25800854</v>
       </c>
       <c r="S27" t="n">
-        <v>63302431.3536857</v>
+        <v>63615757.64119718</v>
       </c>
       <c r="T27" t="n">
-        <v>60118807.45383868</v>
+        <v>62128525.86190277</v>
       </c>
       <c r="U27" t="n">
         <v>8</v>
       </c>
       <c r="V27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>789</v>
+        <v>1093</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z27" t="s"/>
-      <c r="AA27" t="s"/>
-      <c r="AB27" t="s"/>
-      <c r="AC27" t="s"/>
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>26578.15384615384</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>30558127.42238818</v>
+      </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="1" t="n">
@@ -2742,19 +2765,17 @@
         <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>342756.9063816002</v>
+        <v>310168.8975998458</v>
       </c>
       <c r="F28" t="n">
-        <v>16196.95497246518</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1943634.596695821</v>
-      </c>
+        <v>16065.28933586094</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="n">
-        <v>3142371.966310334</v>
+        <v>3242315.670083218</v>
       </c>
       <c r="I28" t="n">
-        <v>3142371.966310334</v>
+        <v>3242315.670083218</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>3142371.966310334</v>
+        <v>3242315.670083218</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2777,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9904298.215095563</v>
+        <v>10290250.7052662</v>
       </c>
       <c r="S28" t="n">
-        <v>17627487.52834467</v>
+        <v>17978835.53642001</v>
       </c>
       <c r="T28" t="n">
-        <v>17621863.40136055</v>
+        <v>17978835.53642001</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2798,10 +2819,18 @@
       <c r="Y28" t="n">
         <v>0</v>
       </c>
-      <c r="Z28" t="s"/>
-      <c r="AA28" t="s"/>
-      <c r="AB28" t="s"/>
-      <c r="AC28" t="s"/>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="1" t="n">
@@ -2817,19 +2846,17 @@
         <v>33</v>
       </c>
       <c r="E29" t="n">
-        <v>34273.91642371234</v>
+        <v>64229.45410146836</v>
       </c>
       <c r="F29" t="n">
-        <v>16196.95497246518</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1943634.596695821</v>
-      </c>
+        <v>16065.28933586094</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="n">
-        <v>314220.9264658244</v>
+        <v>658676.8627702984</v>
       </c>
       <c r="I29" t="n">
-        <v>314220.9264658244</v>
+        <v>658676.8627702984</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2841,34 +2868,34 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>314220.9264658244</v>
+        <v>658676.8627702984</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>105271.784904438</v>
+        <v>392192.6525399222</v>
       </c>
       <c r="P29" t="n">
-        <v>7529.046619165302</v>
+        <v>57014.08755190108</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1116669.906057661</v>
+        <v>1556810.076149471</v>
       </c>
       <c r="S29" t="n">
-        <v>5727340.25915128</v>
+        <v>9924563.029277867</v>
       </c>
       <c r="T29" t="n">
-        <v>5727340.25915128</v>
+        <v>9924087.311634483</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2877,10 +2904,18 @@
       <c r="Y29" t="n">
         <v>0</v>
       </c>
-      <c r="Z29" t="s"/>
-      <c r="AA29" t="s"/>
-      <c r="AB29" t="s"/>
-      <c r="AC29" t="s"/>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="1" t="n">
@@ -2896,78 +2931,70 @@
         <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>797444</v>
+        <v>705972.0084224166</v>
       </c>
       <c r="F30" t="n">
-        <v>15997</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
+        <v>16196.95497246518</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1943634.596695821</v>
       </c>
       <c r="H30" t="n">
-        <v>8094705</v>
+        <v>6439909.297052154</v>
       </c>
       <c r="I30" t="n">
-        <v>8094705</v>
-      </c>
-      <c r="J30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" t="s">
-        <v>48</v>
+        <v>6439909.297052154</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>8094705</v>
-      </c>
-      <c r="N30" t="s">
-        <v>47</v>
+        <v>6439909.297052154</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>8682982.566885298</v>
+        <v>4253811.512795595</v>
       </c>
       <c r="P30" t="n">
-        <v>1061521.890342072</v>
+        <v>1180801.764249651</v>
       </c>
       <c r="Q30" t="n">
-        <v>6369931.662134059</v>
+        <v>8618369.118885649</v>
       </c>
       <c r="R30" t="n">
-        <v>7896381.273396256</v>
+        <v>10360256.57596372</v>
       </c>
       <c r="S30" t="n">
-        <v>52331015.46</v>
+        <v>52079399.15043169</v>
       </c>
       <c r="T30" t="n">
-        <v>49589601.28</v>
+        <v>48880848.23129252</v>
       </c>
       <c r="U30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="s"/>
       <c r="Y30" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>8560186.540983606</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>47232751.47467178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="Z30" t="s"/>
+      <c r="AA30" t="s"/>
+      <c r="AB30" t="s"/>
+      <c r="AC30" t="s"/>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="1" t="n">
@@ -2983,80 +3010,72 @@
         <v>31</v>
       </c>
       <c r="E31" t="n">
-        <v>687972</v>
+        <v>805967.0424360221</v>
       </c>
       <c r="F31" t="n">
-        <v>15997</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
+        <v>16196.95497246518</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1943634.596695821</v>
       </c>
       <c r="H31" t="n">
-        <v>6981283</v>
+        <v>7389050.858438614</v>
       </c>
       <c r="I31" t="n">
-        <v>6981283</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L31" t="s">
-        <v>48</v>
+        <v>7389050.858438614</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>6981283</v>
-      </c>
-      <c r="N31" t="s">
-        <v>47</v>
+        <v>7389050.858438614</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>6900994.765653496</v>
+        <v>3850347.025332038</v>
       </c>
       <c r="P31" t="n">
-        <v>2430969.101572935</v>
+        <v>1054671.71638592</v>
       </c>
       <c r="Q31" t="n">
-        <v>18236123.82018877</v>
+        <v>17644043.4888241</v>
       </c>
       <c r="R31" t="n">
-        <v>29473977.82754759</v>
+        <v>27534703.92938128</v>
       </c>
       <c r="S31" t="n">
-        <v>66556920</v>
+        <v>63302431.3536857</v>
       </c>
       <c r="T31" t="n">
-        <v>63231853.03</v>
+        <v>60118807.45383868</v>
       </c>
       <c r="U31" t="n">
         <v>8</v>
       </c>
       <c r="V31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1087</v>
+        <v>789</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>25521.65573770492</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>29162620.60227017</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="Z31" t="s"/>
+      <c r="AA31" t="s"/>
+      <c r="AB31" t="s"/>
+      <c r="AC31" t="s"/>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="1" t="n">
@@ -3072,34 +3091,34 @@
         <v>32</v>
       </c>
       <c r="E32" t="n">
-        <v>274438</v>
+        <v>342756.9063816002</v>
       </c>
       <c r="F32" t="n">
-        <v>15997</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
+        <v>16196.95497246518</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1943634.596695821</v>
       </c>
       <c r="H32" t="n">
-        <v>2775282</v>
+        <v>3142371.966310334</v>
       </c>
       <c r="I32" t="n">
-        <v>2775282</v>
-      </c>
-      <c r="J32" t="s">
-        <v>46</v>
-      </c>
-      <c r="K32" t="s">
-        <v>47</v>
-      </c>
-      <c r="L32" t="s">
-        <v>48</v>
+        <v>3142371.966310334</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2775282</v>
-      </c>
-      <c r="N32" t="s">
-        <v>47</v>
+        <v>3142371.966310334</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
       </c>
       <c r="O32" t="s"/>
       <c r="P32" t="s"/>
@@ -3107,19 +3126,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>8499401.91969285</v>
+        <v>9904298.215095563</v>
       </c>
       <c r="S32" t="n">
-        <v>19386283.65</v>
+        <v>17627487.52834467</v>
       </c>
       <c r="T32" t="n">
-        <v>19367699.01</v>
+        <v>17621863.40136055</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3128,18 +3147,10 @@
       <c r="Y32" t="n">
         <v>0</v>
       </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z32" t="s"/>
+      <c r="AA32" t="s"/>
+      <c r="AB32" t="s"/>
+      <c r="AC32" t="s"/>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="1" t="n">
@@ -3155,58 +3166,58 @@
         <v>33</v>
       </c>
       <c r="E33" t="n">
-        <v>100388</v>
+        <v>34273.91642371234</v>
       </c>
       <c r="F33" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
+        <v>16196.95497246518</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1943634.596695821</v>
       </c>
       <c r="H33" t="n">
-        <v>1000000</v>
+        <v>314220.9264658244</v>
       </c>
       <c r="I33" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="J33" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" t="s">
-        <v>47</v>
-      </c>
-      <c r="L33" t="s">
-        <v>48</v>
+        <v>314220.9264658244</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="N33" t="s">
-        <v>47</v>
+        <v>314220.9264658244</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>390536.2957926731</v>
+        <v>105271.784904438</v>
       </c>
       <c r="P33" t="n">
-        <v>61061.4564238878</v>
+        <v>7529.046619165302</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1329418.000319949</v>
+        <v>1116669.906057661</v>
       </c>
       <c r="S33" t="n">
-        <v>17184197.32</v>
+        <v>5727340.25915128</v>
       </c>
       <c r="T33" t="n">
-        <v>16827703.99</v>
+        <v>5727340.25915128</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3215,16 +3226,354 @@
       <c r="Y33" t="n">
         <v>0</v>
       </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
+      <c r="Z33" t="s"/>
+      <c r="AA33" t="s"/>
+      <c r="AB33" t="s"/>
+      <c r="AC33" t="s"/>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="n">
+        <v>797444</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15997</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8094705</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8094705</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" t="n">
+        <v>8094705</v>
+      </c>
+      <c r="N34" t="s">
+        <v>48</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8682982.566885298</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1061521.890342072</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>6369931.662134059</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7896381.273396256</v>
+      </c>
+      <c r="S34" t="n">
+        <v>52331015.46</v>
+      </c>
+      <c r="T34" t="n">
+        <v>49589601.28</v>
+      </c>
+      <c r="U34" t="n">
+        <v>10</v>
+      </c>
+      <c r="V34" t="n">
+        <v>10</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8560186.540983606</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>47232751.47467178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="n">
+        <v>687972</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15997</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6981283</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6981283</v>
+      </c>
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6981283</v>
+      </c>
+      <c r="N35" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6900994.765653496</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2430969.101572935</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>18236123.82018877</v>
+      </c>
+      <c r="R35" t="n">
+        <v>29473977.82754759</v>
+      </c>
+      <c r="S35" t="n">
+        <v>66556920</v>
+      </c>
+      <c r="T35" t="n">
+        <v>63231853.03</v>
+      </c>
+      <c r="U35" t="n">
+        <v>8</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1087</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>25521.65573770492</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>29162620.60227017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="n">
+        <v>274438</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15997</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2775282</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2775282</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2775282</v>
+      </c>
+      <c r="N36" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>8499401.91969285</v>
+      </c>
+      <c r="S36" t="n">
+        <v>19386283.65</v>
+      </c>
+      <c r="T36" t="n">
+        <v>19367699.01</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>39</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="n">
+        <v>100388</v>
+      </c>
+      <c r="F37" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="N37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" t="n">
+        <v>390536.2957926731</v>
+      </c>
+      <c r="P37" t="n">
+        <v>61061.4564238878</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1329418.000319949</v>
+      </c>
+      <c r="S37" t="n">
+        <v>17184197.32</v>
+      </c>
+      <c r="T37" t="n">
+        <v>16827703.99</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>25</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
         <v>0</v>
       </c>
     </row>
